--- a/Update 4 Checklist.xlsx
+++ b/Update 4 Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LewisH\Documents\GitHub\Status-Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9595B546-06DE-445D-995D-60C756FA4393}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E4B44-5A11-44AB-97A1-248971377D7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8C7FF0A-F6BD-482B-8B11-22EA5046CE76}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
   <si>
     <t>Key</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Know How To</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
     <t>Currently Doing</t>
   </si>
   <si>
@@ -75,28 +66,22 @@
     <t>An undying Threat</t>
   </si>
   <si>
-    <t>Stronger Than we Thought</t>
-  </si>
-  <si>
-    <t>A Personal Matter</t>
-  </si>
-  <si>
-    <t>The Chosen Priority</t>
-  </si>
-  <si>
-    <t>A Weapon to End All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Job too Difficult </t>
-  </si>
-  <si>
-    <t>Perfect Yet Impure</t>
-  </si>
-  <si>
-    <t>A God Among Us</t>
-  </si>
-  <si>
     <t>Assassination Missions</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently Doing </t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Story Related Enemies</t>
+  </si>
+  <si>
+    <t>Mission Rewards</t>
   </si>
 </sst>
 </file>
@@ -159,7 +144,80 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -183,26 +241,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5201B5B-6C20-4644-B3F8-15E879863569}" name="Table3" displayName="Table3" ref="C4:F15" totalsRowShown="0">
-  <autoFilter ref="C4:F15" xr:uid="{6117EC1F-9E6D-4C8A-B120-6A2B8F5CDB05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5201B5B-6C20-4644-B3F8-15E879863569}" name="Table3" displayName="Table3" ref="C4:F8" totalsRowShown="0">
+  <autoFilter ref="C4:F8" xr:uid="{6117EC1F-9E6D-4C8A-B120-6A2B8F5CDB05}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2D06B263-E609-4B83-90FE-60AD082B5927}" name="Missions"/>
-    <tableColumn id="2" xr3:uid="{626E5A62-8F59-4233-9DAB-9BF528E8055E}" name="Know How To"/>
-    <tableColumn id="3" xr3:uid="{8B12A5CF-9F64-4500-A14C-5E5392E4D1E6}" name="Currently Doing"/>
-    <tableColumn id="4" xr3:uid="{2C342447-AAFD-4109-B5F0-E8FA4DA91D60}" name="Finished"/>
+    <tableColumn id="2" xr3:uid="{626E5A62-8F59-4233-9DAB-9BF528E8055E}" name="Know How To" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8B12A5CF-9F64-4500-A14C-5E5392E4D1E6}" name="Currently Doing" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2C342447-AAFD-4109-B5F0-E8FA4DA91D60}" name="Finished" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7781614D-9210-42BE-9482-DBF07B36FD97}" name="Table5" displayName="Table5" ref="H4:K9" totalsRowShown="0">
-  <autoFilter ref="H4:K9" xr:uid="{AFE6CC82-E920-4EEF-83EB-90DBF2557339}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7781614D-9210-42BE-9482-DBF07B36FD97}" name="Table5" displayName="Table5" ref="H4:K5" totalsRowShown="0">
+  <autoFilter ref="H4:K5" xr:uid="{AFE6CC82-E920-4EEF-83EB-90DBF2557339}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E6761893-0FBD-4589-8B06-67ACA469D9C3}" name="Assassination Missions"/>
-    <tableColumn id="2" xr3:uid="{FEBD0652-EDD9-4A7A-92EF-F8121F6CFC2F}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{BB307211-9297-4A0F-9AAC-898DA6B236C5}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{25B1D071-165F-4D44-BBA3-CD9718C9964E}" name="Column4"/>
+    <tableColumn id="2" xr3:uid="{FEBD0652-EDD9-4A7A-92EF-F8121F6CFC2F}" name="Know How To" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BB307211-9297-4A0F-9AAC-898DA6B236C5}" name="Currently Doing " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25B1D071-165F-4D44-BBA3-CD9718C9964E}" name="Finished" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F9DCF440-3BC0-4344-B081-5312FD8796BA}" name="Table2" displayName="Table2" ref="C10:F13" totalsRowShown="0">
+  <autoFilter ref="C10:F13" xr:uid="{6EDF90C9-73D8-4B5C-BF16-63C8DA2695E3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3E4D1FB8-AA5C-4120-B381-0C3500DE100D}" name="Concepts"/>
+    <tableColumn id="2" xr3:uid="{632AACE2-0FD8-432B-98FF-9C43C26D95D5}" name="Know How To" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2EB59BE8-62E3-49F9-98FD-3E669192C37A}" name="Currently Doing " dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DB7B232E-38FD-4AB7-8C27-3996F56A5792}" name="Finished" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,21 +576,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC050B6-E4D3-4BE8-9CBC-10265371410F}">
-  <dimension ref="A3:K15"/>
+  <dimension ref="A3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -538,22 +611,22 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -561,68 +634,87 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>